--- a/data/income_statement/2digits/size/17_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/17_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>17-Manufacture of paper and paper products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>17-Manufacture of paper and paper products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,665 +841,750 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>291264.52183</v>
+        <v>319107.91855</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>278146.759</v>
+        <v>305454.64323</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>307887.45186</v>
+        <v>332104.73288</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>293505.10679</v>
+        <v>325636.44401</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>309395.52924</v>
+        <v>349239.81518</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>370813.51091</v>
+        <v>414706.20327</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>323559.78623</v>
+        <v>385723.68428</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>354861.2252100001</v>
+        <v>412654.66327</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>353598.39979</v>
+        <v>420898.72702</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1385448.34769</v>
+        <v>1505207.39906</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1527204.34038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1684473.83154</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1803127.336</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>275217.20163</v>
+        <v>300944.85109</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>265394.0042</v>
+        <v>289246.06576</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>293160.12332</v>
+        <v>314319.13912</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>276510.72443</v>
+        <v>304104.93419</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>294447.57761</v>
+        <v>330489.7155399999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>355031.33497</v>
+        <v>394060.22627</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>307688.45462</v>
+        <v>365096.53931</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>310674.42063</v>
+        <v>359869.02904</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>320577.3136000001</v>
+        <v>384163.75848</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1274512.30434</v>
+        <v>1372757.19638</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1394293.53876</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1531407.39265</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1640758.192</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>12652.89901</v>
+        <v>13401.62399</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>11138.5832</v>
+        <v>13068.94962</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>12992.02134</v>
+        <v>14305.45284</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>14875.35259</v>
+        <v>17521.64513</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13251.69647</v>
+        <v>14512.28159</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>13258.1895</v>
+        <v>15516.52246</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13823.36092</v>
+        <v>16222.74324</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>41655.51827</v>
+        <v>47544.00438000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>29716.73816</v>
+        <v>32156.19146</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>96195.38066</v>
+        <v>109993.97328</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>119338.16538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>129952.56905</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>139058.741</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3394.42119</v>
+        <v>4761.443470000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1614.1716</v>
+        <v>3139.62785</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1735.3072</v>
+        <v>3480.14092</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2119.02977</v>
+        <v>4009.86469</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1696.25516</v>
+        <v>4237.81805</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2523.98644</v>
+        <v>5129.45454</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2047.97069</v>
+        <v>4404.40173</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2531.28631</v>
+        <v>5241.62985</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>3304.34803</v>
+        <v>4578.77708</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>14740.66269</v>
+        <v>22456.2294</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>13572.63624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>23113.86984</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23310.403</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2381.57648</v>
+        <v>2683.13677</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2230.25604</v>
+        <v>2529.6793</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1925.30276</v>
+        <v>2337.87985</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3549.32194</v>
+        <v>3761.25348</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1825.31427</v>
+        <v>2096.24245</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2339.42783</v>
+        <v>2604.62276</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1820.03633</v>
+        <v>2235.702</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1307.49435</v>
+        <v>4328.21043</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1393.85085</v>
+        <v>2378.56561</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8600.776830000001</v>
+        <v>11634.94476</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8097.83824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>10125.78241</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>23552.808</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2078.34386</v>
+        <v>2330.88302</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1903.33556</v>
+        <v>2086.55924</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1523.299</v>
+        <v>1914.37374</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2025.1989</v>
+        <v>2191.5056</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1546.68067</v>
+        <v>1754.60895</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1838.988</v>
+        <v>2092.04348</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1425.1251</v>
+        <v>1735.26203</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1052.34087</v>
+        <v>3943.13877</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1217.53975</v>
+        <v>2121.92357</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>6936.044110000001</v>
+        <v>8396.786320000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>6450.6591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8206.868350000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16184.452</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>248.90915</v>
+        <v>295.1162200000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>214.34451</v>
+        <v>274.66973</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>201.41208</v>
+        <v>222.69943</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1401.81621</v>
+        <v>1419.8482</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>123.38844</v>
+        <v>173.07734</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>249.46314</v>
+        <v>257.0857</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>181.47698</v>
+        <v>283.99032</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>152.73468</v>
+        <v>276.59876</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>51.6309</v>
+        <v>109.25901</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>654.5620900000001</v>
+        <v>893.00076</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>517.94523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>726.1835</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5737.709</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>54.32346999999999</v>
+        <v>57.13753</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>112.57597</v>
+        <v>168.45033</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>200.59168</v>
+        <v>200.80668</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>122.30683</v>
+        <v>149.89968</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>155.24516</v>
+        <v>168.55616</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>250.97669</v>
+        <v>255.49358</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>213.43425</v>
+        <v>216.44965</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>102.4188</v>
+        <v>108.4729</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>124.6802</v>
+        <v>147.38303</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1010.17063</v>
+        <v>2345.15768</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1129.23391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1192.73056</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1630.647</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>288882.9453500001</v>
+        <v>316424.78178</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>275916.50296</v>
+        <v>302924.96393</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>305962.1491</v>
+        <v>329766.8530300001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>289955.78485</v>
+        <v>321875.19053</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>307570.21497</v>
+        <v>347143.57273</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>368474.08308</v>
+        <v>412101.58051</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>321739.7499</v>
+        <v>383487.98228</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>353553.73086</v>
+        <v>408326.45284</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>352204.54894</v>
+        <v>418520.1614099999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1376847.57086</v>
+        <v>1493572.4543</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1519106.50214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1674348.04913</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1779574.528</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>243162.8382</v>
+        <v>264361.27694</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>233923.4547</v>
+        <v>254927.20982</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>259849.8003</v>
+        <v>278976.26909</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>245399.71573</v>
+        <v>271375.67421</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>264845.68955</v>
+        <v>296629.19557</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>317451.21461</v>
+        <v>352010.85792</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>272140.92076</v>
+        <v>322426.81853</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>303002.43352</v>
+        <v>346247.33812</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>301819.90499</v>
+        <v>358540.20686</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1196655.15779</v>
+        <v>1292611.50096</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1323106.87831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1448439.53513</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1547941.308</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>151075.657</v>
+        <v>164512.90399</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>134979.26472</v>
+        <v>147294.84919</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>165812.75677</v>
+        <v>179197.92874</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>146007.81304</v>
+        <v>163294.50489</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>161011.92354</v>
+        <v>181870.49473</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>185788.18678</v>
+        <v>206379.75128</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>137992.92199</v>
+        <v>168422.2178</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>143716.22605</v>
+        <v>173246.41356</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>147420.78857</v>
+        <v>184003.44342</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>691400.94923</v>
+        <v>747163.85641</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>716666.9859699999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>792707.4655999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>792652.97</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>81851.88929000001</v>
+        <v>88639.28456</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>91338.42531999999</v>
+        <v>97822.83463</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>83477.2384</v>
+        <v>88282.12757000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>90485.02076</v>
+        <v>97179.28825999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>92430.47984</v>
+        <v>100717.78392</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>117038.40783</v>
+        <v>128277.01887</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>102001.95853</v>
+        <v>118214.73634</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>143711.35372</v>
+        <v>153387.57339</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>142498.06993</v>
+        <v>158469.53304</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>469885.66646</v>
+        <v>504691.0064600001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>555307.4746000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>600485.21788</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>703594.9620000001</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>8942.62048</v>
+        <v>9915.468370000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7140.67895</v>
+        <v>9344.44029</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9673.598390000001</v>
+        <v>10608.3882</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>8155.099470000001</v>
+        <v>10076.898</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>10826.93212</v>
+        <v>13036.1196</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13721.34005</v>
+        <v>16320.74322</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>31490.58754</v>
+        <v>34750.94868</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13871.53367</v>
+        <v>17212.41069</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>11285.36721</v>
+        <v>13805.90344</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>32660.5177</v>
+        <v>36075.72966</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>47198.99389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49227.85093</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>46809.807</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1292.67143</v>
+        <v>1293.62002</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>465.08571</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>886.20674</v>
+        <v>887.82458</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>751.78246</v>
+        <v>824.9830599999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>576.3540499999999</v>
+        <v>1004.79732</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>903.2799500000001</v>
+        <v>1033.34455</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>655.4526999999999</v>
+        <v>1038.91571</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1703.32008</v>
+        <v>2400.94048</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>615.6792800000001</v>
+        <v>2261.32696</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2708.0244</v>
+        <v>4680.908429999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3933.42385</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6019.000720000001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4883.569</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>45720.10715</v>
+        <v>52063.50483999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>41993.04826</v>
+        <v>47997.75411</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>46112.3488</v>
+        <v>50790.58394</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>44556.06912000001</v>
+        <v>50499.51632000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>42724.52542000001</v>
+        <v>50514.37716</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>51022.86847</v>
+        <v>60090.72259</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>49598.82914</v>
+        <v>61061.16375</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>50551.29734</v>
+        <v>62079.11472</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>50384.64395000001</v>
+        <v>59979.95454999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>180192.41307</v>
+        <v>200960.95334</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>195999.62383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>225908.514</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>231633.22</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>38060.51614</v>
+        <v>44053.37475</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>35255.89012</v>
+        <v>43621.0886</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>38707.37932</v>
+        <v>47727.7485</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>38589.98338000001</v>
+        <v>47689.15865999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>37400.069</v>
+        <v>50786.24635</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>42991.41635</v>
+        <v>54058.65075</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>44850.86963</v>
+        <v>60166.16123000001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>48172.16713</v>
+        <v>71033.50478</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>47170.45294</v>
+        <v>70335.63176</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>133172.40574</v>
+        <v>163173.97627</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>145838.12469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>184030.44146</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>199942.717</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>64.13921999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>143.9399</v>
+        <v>211.37091</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>0.7794500000000001</v>
+        <v>8.279450000000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>88.59303999999999</v>
+        <v>156.62368</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>6.80983</v>
+        <v>96.85587</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>71.35724</v>
+        <v>81.68953</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>60.073</v>
+        <v>69.77436999999999</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>13.75756</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>7.70262</v>
+        <v>10.69405</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>328.93836</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>8.936</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>8038.3858</v>
+        <v>8980.298849999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6995.24207</v>
+        <v>7562.99353</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>7175.80711</v>
+        <v>7590.203810000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6878.324720000001</v>
+        <v>7828.31806</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>6883.70184</v>
+        <v>9613.49351</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8458.61845</v>
+        <v>9230.60254</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7835.312369999999</v>
+        <v>9730.199339999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7987.408069999999</v>
+        <v>9918.71803</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>8969.72939</v>
+        <v>11609.29495</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>28719.85428</v>
+        <v>32583.69155</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>30653.67722</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>35782.95289</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>41016.231</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>29957.99112</v>
+        <v>35008.93668</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>28116.70815</v>
+        <v>35846.72416000001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>31530.79276</v>
+        <v>40129.26524</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>31623.06562</v>
+        <v>39704.21692</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>30509.55733</v>
+        <v>41075.89697</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>34461.44066000001</v>
+        <v>44746.35868</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>36955.48426</v>
+        <v>50366.18752000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>40171.0015</v>
+        <v>61101.02919</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>38193.02093</v>
+        <v>58715.64276</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>104123.6131</v>
+        <v>130261.34636</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>115184.44747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>148247.48857</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>158917.55</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7659.59101</v>
+        <v>8010.13009</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>6737.15814</v>
+        <v>4376.66551</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7404.969480000001</v>
+        <v>3062.83544</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5966.08574</v>
+        <v>2810.35766</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5324.45642</v>
+        <v>-271.8691900000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8031.45212</v>
+        <v>6032.07184</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4747.95951</v>
+        <v>895.00252</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2379.13021</v>
+        <v>-8954.390059999998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3214.19101</v>
+        <v>-10355.67721</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>47020.00733</v>
+        <v>37786.97707</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>50161.49914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41878.07254</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>31690.503</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2398.21393</v>
+        <v>5520.63867</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2390.09356</v>
+        <v>9341.71081</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2876.73331</v>
+        <v>24367.62953</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2475.83095</v>
+        <v>11126.31677</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1610.80623</v>
+        <v>11163.88851</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1651.47425</v>
+        <v>9243.4498</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2798.78166</v>
+        <v>16328.63209</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2417.71169</v>
+        <v>17630.66494</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1897.6712</v>
+        <v>16912.19186</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12624.87112</v>
+        <v>72064.2806</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7636.66187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>170226.60292</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>216266.6</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.2975</v>
@@ -1781,31 +1792,36 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>314.47335</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>159.1926</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>2058.5976</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>2004.405</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>10.74679</v>
+        <v>2015.15179</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>170.33302</v>
+        <v>2187.53733</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6414.096</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>174839.357</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1826,70 +1842,80 @@
         <v>0</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1.653</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>1594.2075</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>1594.2075</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>1594.2075</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>121802.95746</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>1511.309</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>298.5246999999999</v>
+        <v>1127.41136</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>191.04366</v>
+        <v>2392.28854</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>257.95004</v>
+        <v>4624.76666</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>382.68297</v>
+        <v>4141.57027</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>159.98004</v>
+        <v>1408.47267</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>271.21052</v>
+        <v>3306.19594</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>159.1252</v>
+        <v>3212.13482</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>145.17777</v>
+        <v>2942.73499</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>242.15344</v>
+        <v>3243.38052</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>721.2696799999999</v>
+        <v>9647.29449</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>923.9645700000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>14747.95148</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>7722.349</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>44.56439</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>5.79668</v>
+        <v>5.829680000000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>58.15881</v>
@@ -1904,7 +1930,7 @@
         <v>25.67296</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>66.20881</v>
+        <v>70.07881</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>276.24088</v>
@@ -1913,133 +1939,153 @@
         <v>240.24635</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>354.48618</v>
+        <v>402.078</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>412.11451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>416.36141</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>410.171</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>124.4003</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>16.86393</v>
+        <v>69.88208999999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>132.41018</v>
+        <v>273.13644</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>28.8</v>
+        <v>161.8</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>67.41664</v>
+        <v>134.70507</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>44.79343</v>
+        <v>221.96189</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>44.79343</v>
+        <v>591.4443</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>38.20846</v>
+        <v>40.14846</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1.94</v>
+        <v>123.82981</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>249.15996</v>
+        <v>277.52429</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>129.54331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>298.81802</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>286.051</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>8.448580000000002</v>
+        <v>693.07277</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>28.3344</v>
+        <v>2255.5244</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>22.97266</v>
+        <v>13523.27951</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>402.40421</v>
+        <v>1202.08131</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>4.95171</v>
+        <v>1769.15729</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>43.79958999999999</v>
+        <v>592.45376</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>39.15482</v>
+        <v>455.24123</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1.63334</v>
+        <v>1188.60155</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>6.75254</v>
+        <v>441.6856</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>74.23839</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>94.91428000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>115.71617</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>86.328</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>659.13284</v>
+        <v>986.46638</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>843.08548</v>
+        <v>2331.32561</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>691.1078100000001</v>
+        <v>2822.11903</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>147.91146</v>
+        <v>1618.54813</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>505.53445</v>
+        <v>2533.10695</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>712.4692299999999</v>
+        <v>1793.31869</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1119.34181</v>
+        <v>5823.57972</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>820.5595999999999</v>
+        <v>4461.87254</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>803.2066499999999</v>
+        <v>4984.84671</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>9435.095150000001</v>
+        <v>50903.32545</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3838.58435</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>18400.75238</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>20988.565</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>393.50778</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>53.89767</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1.851</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.59143</v>
@@ -2090,19 +2141,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>5.165520000000001</v>
+        <v>21.37698</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>3.6044</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>0</v>
+        <v>5.8948</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>0.07618999999999999</v>
+        <v>18.37619</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0.7643799999999999</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>7.516</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>864.74641</v>
+        <v>2146.32676</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1298.55028</v>
+        <v>2280.44136</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1713.87908</v>
+        <v>3065.91435</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1500.50766</v>
+        <v>3972.58095</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>850.8869299999999</v>
+        <v>4981.93672</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>553.5285200000001</v>
+        <v>3084.86149</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1370.15759</v>
+        <v>4103.70261</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1135.81545</v>
+        <v>5104.07783</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>591.8610500000001</v>
+        <v>4268.0792</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1620.28874</v>
+        <v>6978.075150000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2237.54085</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>8029.95</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>10413.103</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1600.76658</v>
+        <v>4103.92289</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>907.5191900000001</v>
+        <v>2584.59008</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1120.17021</v>
+        <v>3074.336150000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>560.9179800000001</v>
+        <v>55446.22235</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1360.55813</v>
+        <v>5498.28103</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1042.81722</v>
+        <v>3199.77196</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1999.96137</v>
+        <v>6212.00501</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>5671.25983</v>
+        <v>11377.41599</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2367.66879</v>
+        <v>16399.4099</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>9863.165260000002</v>
+        <v>34472.55243</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5673.99018</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>29805.39222</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>34088.374</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>48.54349</v>
+        <v>57.73155000000001</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>12.71937</v>
+        <v>100.3608</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>30.05543</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>23.22026</v>
+        <v>24.89948</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>22.83569</v>
+        <v>30.67341</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>78.00336</v>
+        <v>98.18433</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>165.47692</v>
+        <v>274.22845</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>93.63659</v>
+        <v>105.0642</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>170.11456</v>
+        <v>172.3457</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>383.83702</v>
+        <v>383.84197</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>229.99998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>301.29031</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>308.36287</v>
+        <v>2071.50623</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>223.17996</v>
+        <v>265.18914</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>244.34468</v>
+        <v>488.18369</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>235.84125</v>
+        <v>345.10778</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>367.70135</v>
+        <v>428.39639</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>65.73089999999999</v>
+        <v>180.67953</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>873.4013799999999</v>
+        <v>1143.013</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1891.86683</v>
+        <v>3163.57177</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>496.04669</v>
+        <v>672.62755</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1151.12074</v>
+        <v>1409.44526</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1690.43005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2051.47113</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>2083.22</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4.31882</v>
@@ -2282,76 +2358,86 @@
         <v>0.5457799999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0</v>
+        <v>247.69689</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0.30923</v>
+        <v>52437.92718</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>699.70872</v>
+        <v>1301.04614</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>34.45421</v>
+        <v>230.12324</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>4.398020000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>414.95437</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5.840730000000001</v>
+        <v>137.83228</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>8.882</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1.20559</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>83.99299999999999</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>423.63397</v>
+        <v>702.07548</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>356.8823</v>
+        <v>1713.50339</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>374.42646</v>
+        <v>1383.78429</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>142.40033</v>
+        <v>2338.85167</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>145.45645</v>
+        <v>3235.36042</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>613.7439199999999</v>
+        <v>1946.38403</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>820.49313</v>
+        <v>4119.22435</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>873.14009</v>
+        <v>3852.49788</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>513.06098</v>
+        <v>14004.11586</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>8006.292880000001</v>
+        <v>30237.97493</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3292.84833</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>26009.2866</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>23886.144</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>397.77739</v>
@@ -2369,7 +2455,7 @@
         <v>1.16246</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>7.76497</v>
+        <v>15.96076</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.65308</v>
@@ -2425,245 +2516,280 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>416.47696</v>
+        <v>868.86034</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>296.11299</v>
+        <v>486.91218</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>460.25996</v>
+        <v>913.5321700000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>151.21931</v>
+        <v>291.50864</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>123.69346</v>
+        <v>501.64221</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>243.11986</v>
+        <v>728.44007</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>136.19192</v>
+        <v>671.1411899999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2812.61632</v>
+        <v>3841.32777</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1181.35625</v>
+        <v>1411.23893</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>321.91462</v>
+        <v>2432.40827</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>460.7118199999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1442.13859</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>7887.017</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3501.38295</v>
+        <v>4661.915050000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2147.03164</v>
+        <v>4277.04572</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2326.52687</v>
+        <v>9163.535830000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2463.55426</v>
+        <v>6400.330629999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2186.93988</v>
+        <v>4513.16737</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2362.74973</v>
+        <v>3435.73353</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2622.9346</v>
+        <v>17687.29485</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2216.24852</v>
+        <v>7079.40542</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1582.37359</v>
+        <v>6547.927299999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>13654.88319</v>
+        <v>65711.45015</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>12328.66714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>153918.30945</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>94625.66099999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3239.88376</v>
+        <v>4387.688929999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2101.30988</v>
+        <v>4228.64386</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2227.00309</v>
+        <v>8870.240030000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2358.7047</v>
+        <v>6289.827270000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2127.06099</v>
+        <v>4389.701929999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2285.51389</v>
+        <v>3358.49769</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2523.23774</v>
+        <v>17583.7114</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2141.89023</v>
+        <v>5909.80763</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1475.04664</v>
+        <v>6264.33637</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13370.45455</v>
+        <v>37445.48845</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>12008.68716</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>148366.20722</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>70158.34</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>261.49919</v>
+        <v>274.22612</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>45.72176</v>
+        <v>48.40186</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>99.52378</v>
+        <v>293.2958</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>104.84956</v>
+        <v>110.50336</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>59.87889</v>
+        <v>123.46544</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>77.23584</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>99.69686</v>
+        <v>103.58345</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>74.35829000000001</v>
+        <v>1169.59779</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>107.32695</v>
+        <v>283.59093</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>284.42864</v>
+        <v>28265.9617</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>319.97998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5552.10223</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>24467.321</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4955.65541</v>
+        <v>4764.93082</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6072.70087</v>
+        <v>6856.740519999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>6835.00571</v>
+        <v>15192.59299</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5417.444449999999</v>
+        <v>-47909.87855</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3387.76464</v>
+        <v>880.5709199999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6277.35942</v>
+        <v>8640.016149999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2923.8452</v>
+        <v>-6675.66525</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-3090.66645</v>
+        <v>-9780.54653</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>1161.81983</v>
+        <v>-16390.82255</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>36126.83</v>
+        <v>9667.255090000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>39795.50369000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>28380.97379</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>119243.068</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1621.53714</v>
+        <v>2325.26424</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1226.36859</v>
+        <v>2591.75867</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1693.89429</v>
+        <v>2193.60014</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1215.51385</v>
+        <v>1557.04314</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1553.12587</v>
+        <v>77142.36600999998</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1451.79628</v>
+        <v>7151.99396</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1757.21249</v>
+        <v>3341.19793</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1536.20441</v>
+        <v>3288.67317</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1941.4075</v>
+        <v>6006.30757</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4709.2147</v>
+        <v>40398.44233</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6895.42139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>13869.0534</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>49143.092</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2.95793</v>
@@ -2672,346 +2798,389 @@
         <v>214.05036</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>18.76106</v>
+        <v>131.89806</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9.83164</v>
+        <v>9.83165</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>19.68912</v>
+        <v>20.18912</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>12.04859</v>
+        <v>22.04859</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>22.94018</v>
+        <v>37.94018</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>27.61285</v>
+        <v>32.09826</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>10.68096</v>
+        <v>40.83844000000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>75.90389999999999</v>
+        <v>11077.60418</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4.69023</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6.3967</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>301.376</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1618.57921</v>
+        <v>2322.30631</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1012.31823</v>
+        <v>2377.70831</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1675.13323</v>
+        <v>2061.70208</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1205.68221</v>
+        <v>1547.21149</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1533.43675</v>
+        <v>77122.17689</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1439.74769</v>
+        <v>7129.94537</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1734.27231</v>
+        <v>3303.25775</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1508.59156</v>
+        <v>3256.57491</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1930.72654</v>
+        <v>5965.46913</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4633.3108</v>
+        <v>29320.83815</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6890.73116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>13862.6567</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>48841.716</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5228.004559999999</v>
+        <v>5869.99895</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2027.60524</v>
+        <v>4500.09961</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10454.2856</v>
+        <v>17335.45607</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3206.44829</v>
+        <v>3723.85573</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4147.09994</v>
+        <v>45654.93366</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7474.67488</v>
+        <v>11221.05513</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2268.0748</v>
+        <v>5828.05551</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>7507.98979</v>
+        <v>32556.31895</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4692.59704</v>
+        <v>9227.636719999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12336.83841</v>
+        <v>25953.43189</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5492.17897</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>11345.04045</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>19887.898</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>333.21649</v>
+        <v>433.31036</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>273.48395</v>
+        <v>873.58732</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>263.84949</v>
+        <v>463.71134</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>63.13022</v>
+        <v>169.43794</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>21.63232</v>
+        <v>613.4267</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>193.33148</v>
+        <v>578.16455</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>221.1067</v>
+        <v>1816.32791</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>113.59437</v>
+        <v>1029.3851</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>713.47802</v>
+        <v>1672.42451</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>202.72004</v>
+        <v>937.76466</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>155.26477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>279.62767</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1097.982</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>424.13038</v>
+        <v>478.3009900000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>25.4479</v>
+        <v>1088.10058</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>161.24338</v>
+        <v>169.87706</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>336.13556</v>
+        <v>337.3289300000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>193.67245</v>
+        <v>409.56367</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>91.44651</v>
+        <v>124.71732</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>139.95123</v>
+        <v>279.49976</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>35.42784</v>
+        <v>41.43982</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>313.09761</v>
+        <v>575.90048</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>237.34222</v>
+        <v>634.28751</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>692.95856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>934.4722800000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>821.763</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4470.657689999999</v>
+        <v>4958.3876</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1728.67339</v>
+        <v>2538.41171</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10029.19273</v>
+        <v>16701.86767</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>2807.18251</v>
+        <v>3217.08886</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3931.79517</v>
+        <v>44631.94329000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>7189.896890000001</v>
+        <v>10518.17326</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1907.01687</v>
+        <v>3732.22784</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7358.96758</v>
+        <v>31485.49403</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>3666.02141</v>
+        <v>6979.311729999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>11896.77615</v>
+        <v>24381.37972</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4643.955640000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>10130.9405</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>17968.153</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1349.18799</v>
+        <v>1220.19611</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5271.46422</v>
+        <v>4948.39958</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-1925.3856</v>
+        <v>50.73706000000006</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3426.51001</v>
+        <v>-50076.69114</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>793.7905700000001</v>
+        <v>32368.00327</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>254.4808200000003</v>
+        <v>4570.95498</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2412.98289</v>
+        <v>-9162.52283</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-9062.45183</v>
+        <v>-39048.19231000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1589.36971</v>
+        <v>-19612.1517</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>28499.20629</v>
+        <v>24112.26553</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>41198.74611</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>30904.98674</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>148498.262</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1733.56005</v>
+        <v>1994.34642</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1852.54465</v>
+        <v>2066.89561</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1947.22546</v>
+        <v>4850.502729999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1938.20316</v>
+        <v>2150.9427</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1678.7849</v>
+        <v>2549.95793</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2115.71976</v>
+        <v>2796.48843</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1900.27977</v>
+        <v>3001.75921</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1857.03437</v>
+        <v>3197.27918</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1848.26914</v>
+        <v>2975.78354</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>9146.26871</v>
+        <v>13561.40505</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>9974.609410000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>13639.34949</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>15613.168</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-384.37206</v>
+        <v>-774.15031</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3418.91957</v>
+        <v>2881.50397</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3872.61106</v>
+        <v>-4799.76567</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1488.30685</v>
+        <v>-52227.63384</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-884.99433</v>
+        <v>29818.04534</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-1861.23894</v>
+        <v>1774.46655</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>512.70312</v>
+        <v>-12164.28204</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-10919.4862</v>
+        <v>-42245.47149</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3437.63885</v>
+        <v>-22587.93524</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>19352.93758</v>
+        <v>10550.86048</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>31224.1367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>17265.63725</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>132885.094</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>878</v>
+        <v>960</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>846</v>
+        <v>946</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>805</v>
+        <v>906</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>760</v>
+        <v>866</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>774</v>
+        <v>900</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>768</v>
+        <v>902</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>722</v>
+        <v>894</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>736</v>
+        <v>914</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>783</v>
+        <v>985</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1055</v>
+        <v>1324</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1485</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>